--- a/bot_udentify/ıstenen_magazalar.xlsx
+++ b/bot_udentify/ıstenen_magazalar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilkedelandcaglar/Downloads/udentify/bot_udentify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EEE1FE1-09DE-0140-8C44-3897C5257999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B5722-703D-964D-B248-A66C3A57B01D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19560" xr2:uid="{4EE2341E-B8EE-C74C-BEDC-7A9BD4D78AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Firma</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Son tarih</t>
   </si>
   <si>
-    <t>Performans Tablosu ıd</t>
-  </si>
-  <si>
     <t>Mağaza ıd yoğunluk</t>
   </si>
   <si>
@@ -66,13 +63,19 @@
     <t>Under Armour</t>
   </si>
   <si>
-    <t>[["a","b"],["c","d"]]</t>
-  </si>
-  <si>
-    <t>"30/10/2020"</t>
-  </si>
-  <si>
-    <t>"13/11/2020"</t>
+    <t>Under Armour Akasya</t>
+  </si>
+  <si>
+    <t>Under Armour Istinye Park</t>
+  </si>
+  <si>
+    <t>01/12/2020'</t>
+  </si>
+  <si>
+    <t>25/12/2020'</t>
+  </si>
+  <si>
+    <t>["BOYS","GIRLS"],["WOMEN'S RUN","MEN'S RUN"]</t>
   </si>
 </sst>
 </file>
@@ -108,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,18 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E45062-AF01-454A-9113-57C3C4A0698A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="20.83203125" customWidth="1"/>
+    <col min="1" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,39 +458,79 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>239</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2">
         <v>160</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>240</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
+      </c>
+      <c r="C4">
+        <v>228</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
